--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:49:25+00:00</t>
+    <t>2024-11-13T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T17:25:07+00:00</t>
+    <t>2024-11-16T17:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-16T17:09:48+00:00</t>
+    <t>2024-11-17T10:04:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:04:37+00:00</t>
+    <t>2024-11-17T10:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:15:13+00:00</t>
+    <t>2024-11-17T10:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:25:25+00:00</t>
+    <t>2024-11-17T10:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:38:58+00:00</t>
+    <t>2024-11-17T16:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T16:50:27+00:00</t>
+    <t>2024-11-18T17:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T17:53:13+00:00</t>
+    <t>2024-11-20T16:15:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/MappingPosologie/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T16:15:47+00:00</t>
+    <t>2024-12-26T10:27:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
